--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_32.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_32.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_0</t>
+          <t>model_1_32_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993181492359354</v>
+        <v>0.9432939991843516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8259513046796207</v>
+        <v>0.7007859903516092</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8139482392236802</v>
+        <v>0.7653781621265464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998533702235741</v>
+        <v>0.9332454085231058</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002838222008674341</v>
+        <v>0.1820425479852328</v>
       </c>
       <c r="G2" t="n">
-        <v>1.163864427027927</v>
+        <v>2.000845460272619</v>
       </c>
       <c r="H2" t="n">
-        <v>0.665496360395972</v>
+        <v>0.8392287099175377</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00110621236883894</v>
+        <v>0.1463016937208896</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0780423014100006</v>
+        <v>1.207314918414445</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05327496605981407</v>
+        <v>0.4266644442477399</v>
       </c>
       <c r="L2" t="n">
-        <v>1.043638448900133</v>
+        <v>0.9227833180382661</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05411399351982814</v>
+        <v>0.4333839827366725</v>
       </c>
       <c r="N2" t="n">
-        <v>141.7291549522918</v>
+        <v>37.40702967817803</v>
       </c>
       <c r="O2" t="n">
-        <v>283.0643274955082</v>
+        <v>74.37161326640386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_3</t>
+          <t>model_1_32_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999414843788086</v>
+        <v>0.9431570875165308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8257772289682345</v>
+        <v>0.7003694516995069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8141391961702468</v>
+        <v>0.7653242110066092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997953891529692</v>
+        <v>0.9337930803854017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002435728353909416</v>
+        <v>0.1824820737585282</v>
       </c>
       <c r="G3" t="n">
-        <v>1.165028472111512</v>
+        <v>2.00363085615721</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6648133184704235</v>
+        <v>0.8394216899452877</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001543636328864065</v>
+        <v>0.1451013969430284</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08406944235298873</v>
+        <v>1.209994554159541</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04935309872651783</v>
+        <v>0.4271792056719618</v>
       </c>
       <c r="L3" t="n">
-        <v>1.037449997562497</v>
+        <v>0.922596885128893</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05013036069646152</v>
+        <v>0.4339068511387532</v>
       </c>
       <c r="N3" t="n">
-        <v>142.035018897052</v>
+        <v>37.40220667352949</v>
       </c>
       <c r="O3" t="n">
-        <v>283.3701914402685</v>
+        <v>74.36679026175531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_4</t>
+          <t>model_1_32_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994316274457199</v>
+        <v>0.9430153761258603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8257147144350788</v>
+        <v>0.6999475958110223</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8144327415860485</v>
+        <v>0.7652677112128173</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998063210014291</v>
+        <v>0.9343368212110932</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002365865930937872</v>
+        <v>0.1829370080206017</v>
       </c>
       <c r="G4" t="n">
-        <v>1.165446507082577</v>
+        <v>2.006451808425975</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6637633235388416</v>
+        <v>0.8396237864316347</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001461163680569265</v>
+        <v>0.1439097155622593</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08433746234508403</v>
+        <v>1.21272345758677</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0486401678753052</v>
+        <v>0.4277113606400954</v>
       </c>
       <c r="L4" t="n">
-        <v>1.036375843473927</v>
+        <v>0.9224039164267034</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04940620189701168</v>
+        <v>0.4344473870156751</v>
       </c>
       <c r="N4" t="n">
-        <v>142.0932223597858</v>
+        <v>37.39722680772829</v>
       </c>
       <c r="O4" t="n">
-        <v>283.4283949030022</v>
+        <v>74.36181039595412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_2</t>
+          <t>model_1_32_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994136882505537</v>
+        <v>0.9428687458321016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8256483401853913</v>
+        <v>0.6995204434801356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8139273578380195</v>
+        <v>0.7652087850092997</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998234235167002</v>
+        <v>0.9348764542837341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00244053830973713</v>
+        <v>0.1834077333742453</v>
       </c>
       <c r="G5" t="n">
-        <v>1.165890351995862</v>
+        <v>2.00930817802947</v>
       </c>
       <c r="H5" t="n">
-        <v>0.665571051901708</v>
+        <v>0.8398345620448796</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001332137950651255</v>
+        <v>0.1427270368765166</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08515389049950504</v>
+        <v>1.215501181867662</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0494018047214586</v>
+        <v>0.4282612910061396</v>
       </c>
       <c r="L5" t="n">
-        <v>1.037523951964566</v>
+        <v>0.9222042496437127</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05017983376213447</v>
+        <v>0.4350059782352558</v>
       </c>
       <c r="N5" t="n">
-        <v>142.0310732905301</v>
+        <v>37.39208710668154</v>
       </c>
       <c r="O5" t="n">
-        <v>283.3662458337465</v>
+        <v>74.35667069490736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_1</t>
+          <t>model_1_32_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9993889692586704</v>
+        <v>0.9427170018362968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.825614104095086</v>
+        <v>0.6990878258224733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8137151093433597</v>
+        <v>0.7651473820991974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998305439355651</v>
+        <v>0.935411608457297</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002543431773369988</v>
+        <v>0.183894875180058</v>
       </c>
       <c r="G6" t="n">
-        <v>1.166119288889377</v>
+        <v>2.01220109429828</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6663302524602315</v>
+        <v>0.84005419669397</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001278419697703328</v>
+        <v>0.1415541743023947</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08573460893090079</v>
+        <v>1.218332064830584</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05043244762422292</v>
+        <v>0.4288296575332191</v>
       </c>
       <c r="L6" t="n">
-        <v>1.039105967445096</v>
+        <v>0.9219976195217658</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05122670826035241</v>
+        <v>0.4355832959669788</v>
       </c>
       <c r="N6" t="n">
-        <v>141.9484820359542</v>
+        <v>37.3867820303756</v>
       </c>
       <c r="O6" t="n">
-        <v>283.2836545791706</v>
+        <v>74.35136561860142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_6</t>
+          <t>model_1_32_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995228070435437</v>
+        <v>0.9425600642089651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8253419665196695</v>
+        <v>0.6986498105403458</v>
       </c>
       <c r="D7" t="n">
-        <v>0.814274123114153</v>
+        <v>0.7650833722895565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997600189141802</v>
+        <v>0.9359421759749489</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00198632842078977</v>
+        <v>0.1843986900346289</v>
       </c>
       <c r="G7" t="n">
-        <v>1.167939074109265</v>
+        <v>2.01513010450674</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6643306926155845</v>
+        <v>0.8402831560715538</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001810478416404783</v>
+        <v>0.1403913640035311</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08041720325337522</v>
+        <v>1.221216094864711</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04456824453340932</v>
+        <v>0.429416685789722</v>
       </c>
       <c r="L7" t="n">
-        <v>1.030540349213204</v>
+        <v>0.9217839172207184</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04527014983291094</v>
+        <v>0.4361795693317086</v>
       </c>
       <c r="N7" t="n">
-        <v>142.4429347181205</v>
+        <v>37.38131014363712</v>
       </c>
       <c r="O7" t="n">
-        <v>283.7781072613369</v>
+        <v>74.34589373186294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_5</t>
+          <t>model_1_32_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995199864756166</v>
+        <v>0.9423978140798218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.825306856850153</v>
+        <v>0.6982061748582719</v>
       </c>
       <c r="D8" t="n">
-        <v>0.814274257966955</v>
+        <v>0.7650167934050152</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997720492622721</v>
+        <v>0.9364678269617502</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001998069110086918</v>
+        <v>0.1849195595457093</v>
       </c>
       <c r="G8" t="n">
-        <v>1.168173852630987</v>
+        <v>2.018096698355524</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6643302102549311</v>
+        <v>0.8405213048810927</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001719718407181657</v>
+        <v>0.1392393289453627</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08090900811942882</v>
+        <v>1.224156239131407</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04469976633145769</v>
+        <v>0.430022743056352</v>
       </c>
       <c r="L8" t="n">
-        <v>1.030720865560539</v>
+        <v>0.9215629808746509</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04540374296780501</v>
+        <v>0.436795171394453</v>
       </c>
       <c r="N8" t="n">
-        <v>142.4311480194418</v>
+        <v>37.3756687234579</v>
       </c>
       <c r="O8" t="n">
-        <v>283.7663205626582</v>
+        <v>74.34025231168371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_7</t>
+          <t>model_1_32_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995170266082145</v>
+        <v>0.9422300627247771</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8251816654101063</v>
+        <v>0.6977569327226861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8138421839219534</v>
+        <v>0.7649473356457714</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9995991543752806</v>
+        <v>0.9369883643026199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002010389637166874</v>
+        <v>0.1854580895718277</v>
       </c>
       <c r="G9" t="n">
-        <v>1.169011008367034</v>
+        <v>2.021100782584755</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6658757140608089</v>
+        <v>0.8407697512585151</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003024081457860676</v>
+        <v>0.1380985011321843</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07927890801164579</v>
+        <v>1.22715360532066</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04483736875828993</v>
+        <v>0.4306484524201006</v>
       </c>
       <c r="L9" t="n">
-        <v>1.030910297074271</v>
+        <v>0.9213345534975688</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04554351249530791</v>
+        <v>0.4374307350552009</v>
       </c>
       <c r="N9" t="n">
-        <v>142.4188534527215</v>
+        <v>37.36985270937704</v>
       </c>
       <c r="O9" t="n">
-        <v>283.7540259959379</v>
+        <v>74.33443629760286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_8</t>
+          <t>model_1_32_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995124656107679</v>
+        <v>0.9420567299468305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8248314948399051</v>
+        <v>0.6973020256590675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8134314310016257</v>
+        <v>0.7648754696232635</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995252868057622</v>
+        <v>0.9375034345032618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00202937491080264</v>
+        <v>0.1860145375683868</v>
       </c>
       <c r="G10" t="n">
-        <v>1.171352600582356</v>
+        <v>2.024142748213827</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6673449534399983</v>
+        <v>0.8410268118539945</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003581357210774158</v>
+        <v>0.1369696552944392</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07913302223847186</v>
+        <v>1.230211101100436</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04504858389342156</v>
+        <v>0.4312940268174216</v>
       </c>
       <c r="L10" t="n">
-        <v>1.031202200910855</v>
+        <v>0.9210985258850458</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04575805405768017</v>
+        <v>0.438086476603942</v>
       </c>
       <c r="N10" t="n">
-        <v>142.4000549181206</v>
+        <v>37.36386089870673</v>
       </c>
       <c r="O10" t="n">
-        <v>283.735227461337</v>
+        <v>74.32844448693255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_9</t>
+          <t>model_1_32_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995021269162071</v>
+        <v>0.9418776001822851</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8247523940469691</v>
+        <v>0.6968413962356781</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8133654072342137</v>
+        <v>0.7648007703384816</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9994764728892467</v>
+        <v>0.9380127981764</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002072410002922424</v>
+        <v>0.1865895955567621</v>
       </c>
       <c r="G11" t="n">
-        <v>1.171881547948945</v>
+        <v>2.027222979289036</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6675811166277534</v>
+        <v>0.841294006864346</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00394962182616934</v>
+        <v>0.1358533160816405</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07927817240374396</v>
+        <v>1.2333305239554</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04552373010774078</v>
+        <v>0.4319601782071608</v>
       </c>
       <c r="L11" t="n">
-        <v>1.031863877362746</v>
+        <v>0.9208546045035371</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04624068334990297</v>
+        <v>0.4387631192121625</v>
       </c>
       <c r="N11" t="n">
-        <v>142.3580861926037</v>
+        <v>37.35768750025155</v>
       </c>
       <c r="O11" t="n">
-        <v>283.6932587358201</v>
+        <v>74.32227108847738</v>
       </c>
     </row>
   </sheetData>
